--- a/Minutes_of_meeting/Minutes-of-meetings.xlsx
+++ b/Minutes_of_meeting/Minutes-of-meetings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\UCD\Sem-3\Microservices-Based-USstock\Minutes_of_meeting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UCD Practicals &amp; Projects\Summer Team Software Project\FInal Project Git\US-Stock-Options-Data-Pipeline-microservice\Minutes_of_meeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4AE0CE-3A09-431A-99AE-530B29B79983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AE7FAB-23BD-4D49-8CED-19299605DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6626D02-EAB1-4E07-BCA0-63E94328CB3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6626D02-EAB1-4E07-BCA0-63E94328CB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>DATE</t>
   </si>
@@ -46,13 +46,785 @@
   </si>
   <si>
     <t>CHALLENGES FACED</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Change in Project Scope: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Initial plan was based on a different project; the team had to quickly adapt to a new domain: stock options data pipelines.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Complex Architecture Requirements: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The project mandates microservices, high availability, and observability tools, which demand clear separation of duties and robust collaboration.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Tool Familiarity Gap:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Some team members needed to familiarize themselves with Prometheus, Grafana, and container orchestration tools like Kubernetes or Docker Swarm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Rate Limitations of APIs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Need to identify an API with optimal rate limits for frequent data ingestion without hitting throttling issues.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">03-06-2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Agenda: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Technical Planning &amp; Role Allocation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06-06-2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agenda:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To finalize the foundational technical setup of the project and align on upcoming implementation tasks.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Syed Athar Hussain (Team Lead &amp; Scrum Master)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Lead Agile sprints, manage coordination, and contribute to backend services.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Dimple (Data Engineering Lead)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Handle API data ingestion, preprocessing, schema definition, and ETL logic.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Harshdeep Mahajan	(Backend Developer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Build microservices for data fetch, transformation, and database interaction.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Girish Zarbade(Frontend Developer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Develop UI/dashboard for system monitoring and data status visualization.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. Tanmay Shelatkar(DevOps &amp; Testing Engineer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Implement CI/CD, orchestrate containers, set up observability and chaos tests.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Durga Prasad Sahoo	(Backend Developer)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Assist with backend service development and ensure inter-service reliability.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Technology Stack Selection:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Considered Python (FastAPI/Flask), PostgreSQL, MongoDB, MinIO/AWS S3, Prometheus, Grafana, and Docker/Kubernetes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Microservices Design &amp; Load Balancing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No more than eight microservices; each to run in two instances with failover and load balancing using Nginx/HAProxy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. API Provider Research:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Finnhub, Tradier, Polygon.io, Yahoo Finance and TD Ameritrade APIs were evaluated for data richness and rate limits.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. Chaos Testing and Monitoring Needs: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Discussed testing resilience by simulating failures in services, databases, and storage nodes, while ensuring continued observability.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. Team Roles Finalization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Roles were finalized based on individual strengths and alignment with project architecture.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. API Evaluation by All Members</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: All team members agreed to individually test the recommended APIs (Finnhub, Tradier, Yahoo Finance, Polygon.io, TD Ameritrade). The team will collectively review results and finalize the most suitable API based on data coverage, rate limits, and ease of integration.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. GitHub Repository Creation and Setup: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The team discussed creating the official GitHub repository. It will include an initial README file outlining the project’s overview, microservice structure, and contribution guidelines.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Drafting the Data Flow Plan and Project Objectives: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The team reviewed the initial concept for the system architecture and data pipeline. A working draft outlining microservice responsibilities, data flow, and storage strategy will be collaboratively developed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. Project Planning and Sprint Structure: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The need for a structured project timeline with deliverables and milestones was emphasized. Team will create a sprint plan, including estimated deadlines for API integration, containerization, observability, and testing phases.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Development Environment Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Discussed the tools and environments required for microservice development and testing (e.g., FastAPI/Flask, Docker, Postman). Members agreed to individually set up local development environments including IDEs, backend frameworks, and required libraries.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Choosing the most suitable stock options API proved challenging due to varying rate limits, data structures, and incomplete or inconsistent documentation across providers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. The microservices-based architecture required rapid understanding and re-alignment of team responsibilities and objectives.
+2. Team members had different setups, leading to inconsistencies in tools and frameworks. Establishing a common baseline environment was identified as a priority.</t>
+  </si>
+  <si>
+    <t>1. The team struggled to define constraints for data collection due to varying API rate limits and cost efficiency.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Probal sir emphasized the importance of prioritizing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>system architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data flow planning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> over immediate API integration.
+2. He advised the team to define project constraints clearly, especially regarding dataset size, frequency, and update intervals, before moving ahead with implementation.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. The team will study API documentation in detail to identify practical </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data constraints</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and finalize a well-defined data ingestion plan.
+2. A detailed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>system architecture and execution strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be drafted, incorporating these constraints and aligned with project requirements.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Test all API provider to finalize and to test authentication flow.
+2. Create and Initialize GitHub repository with service folders and README. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Containerize and create a temporary docker file with basic requirnments using Docker. 
+5. Draft system architecture and pipeline diagram collaboratively.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6. Scheducle next sprint planning meeting on [08/06/2025].</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. API Finalization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> After evaluating multiple options, the team finalized the most suitable API (twelve data API, Yahoo FInance) for stock options data based on rate limits, data richness, and integration ease.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. S3 Bucket Creation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> An object storage bucket (e.g., AWS S3 or compatible) was successfully created to store processed data as CSV files as per project requirements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initial CI/CD Pipeline and Docker Setup:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The team decided to begin setting up the Continuous Integration/Continuous Deployment (CI/CD) pipeline. Docker will be used to containerize microservices as part of the initial infrastructure setup.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Refine the data pipeline flow, clearly define project goals, constraints, and justify API and technology choices in the final draft.
+2. Review and consolidate all sections including architecture, API details, system design, and observability setup to complete the final project document.
+3. Ensure all required documents (MoM, architecture diagram, data plan, objective, etc.) are submitted on time to the project coordinator or designated portal.</t>
+  </si>
+  <si>
+    <t>1. Submitted all the required documents.
+2. Discussed further task for the upcoming team workshop.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +832,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,9 +873,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,9 +914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +954,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -248,7 +1060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,7 +1202,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,55 +1212,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CB3A1-9D53-459A-9590-285823EBD908}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45811</v>
+    <row r="2" spans="1:4" ht="405" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>45814</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45814</v>
+    <row r="5" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45816</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45816</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>45817</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Minutes_of_meeting/Minutes-of-meetings.xlsx
+++ b/Minutes_of_meeting/Minutes-of-meetings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UCD Practicals &amp; Projects\Summer Team Software Project\FInal Project Git\US-Stock-Options-Data-Pipeline-microservice\Minutes_of_meeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AE7FAB-23BD-4D49-8CED-19299605DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A44CEE-0592-49F1-BDF5-04C7AC54FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6626D02-EAB1-4E07-BCA0-63E94328CB3A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>DATE</t>
   </si>
@@ -818,6 +818,79 @@
   <si>
     <t>1. Submitted all the required documents.
 2. Discussed further task for the upcoming team workshop.</t>
+  </si>
+  <si>
+    <t>1. Begin development of scheduling mechanisms and link them to respective services.
+2. Each team member to start implementing their assigned component (Collector, Processor, Writers).
+3. Set up and test Docker containers for each microservice.
+4. Use the drafted flow diagram as a blueprint for coding and system integration.
+5. Continue daily stand-ups or syncs to ensure blockers are addressed quickly.
+6. Start implementing the finalized data plan and track progress through Jira.
+7. Plan for next meeting to demo partial integration and review dashboard progress.</t>
+  </si>
+  <si>
+    <t>1. Team members encountered roadblocks while implementing parts of their tasks and required mutual support.
+2. Lack of clarity on the complete data pipeline structure initially caused minor confusion in scheduling and dependencies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Identified and finalized the scheduling jobs required across services.
+2. Discussed the core methods/functions needed for:
+a. Collector: Data fetching strategy
+b. Processor: Data cleaning/transformation logic
+c. Writers: Database and file output handling
+3. Discussed and initiated setup for the Dockerfile for containerization.
+4. Designed a rough flow diagram outlining interactions between five key services:
+a. Scheduler
+b. Collector
+c. Processor
+d. DB Writer
+e. File Writer
+5. Assigned specific responsibilities to each team member and updated the Jira board accordingly.
+6. Discussed how options data should be presented on the dashboard for clear visibility.
+7. Finalized the data flow plan for implementation.
+</t>
+  </si>
+  <si>
+    <t>1. Finalize the data model including:
+a. Columns for each table
+b. Indexing strategy for PostgreSQL
+c. Schema for time-series storage in InfluxDB
+2. Team members to prototype database setup on:
+a. Azure PostgreSQL instance
+b. InfluxDB local/cloud setup
+c. S3 bucket configuration for historical data
+3. Begin integrating Kafka into the architecture for event-driven communication between services.
+4. Start setting up Prometheus and Grafana monitoring stack.
+5. Define how Dockerfiles will be structured per microservice and set up Kubernetes manifests.
+6. UI team to start wireframing frontend components using React based on yFinance reference.
+7. Finalize decision on storing historical data — static tables vs. S3 — based on access needs and performance.
+8. Implement the initial version of the writer service to create and update the necessary databases.</t>
+  </si>
+  <si>
+    <t>1. Evaluated various database options based on use cases:
+a. PostgreSQL for relational/day-wise data
+b. InfluxDB for time-series data
+c. S3 for storing large CSV files and historical data
+2. Team members explored different service providers:
+a. Azure (Postgres hosting)
+b. AWS (S3, RDS)
+c. Google Cloud
+d. InfluxDB Cloud
+3. Kafka’s role in microservice communication was discussed, along with strategies for integration.
+4. Defined key fields and discussed schema/data model design for the database.
+5. Importance of indexing in PostgreSQL to improve query performance was emphasized.
+6. UI/UX planning began with reference to yFinance, to be implemented using React.
+7. Discussion on using Prometheus and Grafana for monitoring and data visualization.
+8. Talked through Dockerfile structure for microservices and deployment using Kubernetes.
+9. Clarified roles of PostgreSQL vs. InfluxDB for frontend visualizations and real-time data insights.
+10. Debated between using S3 or a static PostgreSQL table for storing historical data.
+11. Agreed that databases will be initialized and managed via the writer service.</t>
+  </si>
+  <si>
+    <t>1. Uncertainty about which database services best fit different types of data (e.g., historical vs. day-wise).
+2. Performance concerns with PostgreSQL for large datasets — indexing strategies need optimization.
+3. Need for clarity on Kafka integration across microservices.
+4. Complexity in deciding where and how to store long-term historical data — S3 vs. static PostgreSQL tables.</t>
   </si>
 </sst>
 </file>
@@ -873,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -895,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CB3A1-9D53-459A-9590-285823EBD908}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1379,52 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45820</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45821</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45824</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Minutes_of_meeting/Minutes-of-meetings.xlsx
+++ b/Minutes_of_meeting/Minutes-of-meetings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UCD Practicals &amp; Projects\Summer Team Software Project\FInal Project Git\US-Stock-Options-Data-Pipeline-microservice\Minutes_of_meeting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIRISH\Desktop\US-Stock-Options-Data-Pipeline-microservice\Minutes_of_meeting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A44CEE-0592-49F1-BDF5-04C7AC54FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781609CB-4DFA-433F-8029-F3123A7506CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6626D02-EAB1-4E07-BCA0-63E94328CB3A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>DATE</t>
   </si>
@@ -891,6 +891,68 @@
 2. Performance concerns with PostgreSQL for large datasets — indexing strategies need optimization.
 3. Need for clarity on Kafka integration across microservices.
 4. Complexity in deciding where and how to store long-term historical data — S3 vs. static PostgreSQL tables.</t>
+  </si>
+  <si>
+    <t>1. Limited time for syncing frontend with live backend data (dashboard still uses dummy data).
+2. Minor integration delays between the data processor and database writer, now resolved.
+3. Difficulty in aligning frontend visuals with backend data structure.</t>
+  </si>
+  <si>
+    <t>1. Finalize and polish the interim PPT, including diagrams and descriptions of all backend services.
+2. Prepare demo-ready views of the frontend dashboard, even if backed by dummy data.
+3. Assign team members to present specific backend modules during the presentation.
+4. Plan next sprint for live data integration with the frontend dashboard.
+5. Conduct a mock presentation before the final interim demo.</t>
+  </si>
+  <si>
+    <t>1. Reviewed progress on both backend and frontend development.
+2. Confirmed that four backend services have been successfully completed:
+a. Airflow Scheduler
+b. Data Collector
+c. Data Processor
+d. Database Writer
+3. Agreed that all four services should be included in the interim presentation to showcase technical milestones.
+4. Evaluated the frontend dashboard, currently working with dummy data, and confirmed it will also be shown during the interim demo.
+5. Discussed and finalized the key points/content to be included in the interim presentation PowerPoint (PPT).
+6. Initiated the process of creating the PPT, assigning responsibilities for different sections.</t>
+  </si>
+  <si>
+    <t>1. Reviewed the first draft of the interim presentation PPT.
+2. Finalized what additional content needs to be added to the slides for better clarity and completeness.
+3. Discussed and agreed upon theme changes (visual style, color palette, font consistency) to enhance the presentation’s aesthetics.
+4. Planned to record a demo video of the interim presentation for submission.
+5. Allocated specific sections of the presentation to each team member for delivery during the recording.
+6. Team agreed on maintaining flow and continuity during the demo by rehearsing transitions between speakers.</t>
+  </si>
+  <si>
+    <t>1. Initial PPT lacked visual consistency and missed a few technical highlights.
+2. Some members faced difficulty syncing their verbal explanations with the content shown in the slides.
+3. Limited time available to record, edit, and submit the demo before the deadline.</t>
+  </si>
+  <si>
+    <t>1. Update the PPT with final content and apply the agreed theme and design changes.
+2. Schedule and conduct a rehearsal session to align speaking parts and transitions.
+3. Record the interim presentation demo video, ensuring clarity, timing, and technical accuracy.
+4. Complete video editing (if needed) and submit the demo before the assigned deadline.
+5. Ensure all team members are familiar with the content of their assigned sections and ready to present confidently.</t>
+  </si>
+  <si>
+    <t>1. Minor inconsistencies in the initial version of the combined demo.
+2. Time pressure to complete script finalization and video editing before submission.
+3. Coordination across team members to ensure a unified tone in the script and presentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Finalize and submitted the merged demo video after incorporating edits.
+2. Conduct a quick rehearsal before the live presentation to ensure confidence and clarity.
+3. All team members to review their script parts one last time and be prepared for potential Q&amp;A during the interim review session.
+</t>
+  </si>
+  <si>
+    <t>1. Reviewed the final draft of the interim presentation PPT, scheduled to be presented on 24/06/2024.
+2. Presented the recorded demo video created by all team members.
+3. Discussed and implemented necessary edits to merge and smoothen the full demo recording, ensuring consistency in flow and transitions.
+4. Worked collectively on finalizing the presentation script, refining each member’s speaking part for clarity and time management.
+5. Ensured alignment between script, slides, and demo for a cohesive presentation delivery.</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1351,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45821</v>
       </c>
@@ -1407,17 +1469,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>45824</v>
       </c>
-      <c r="B9"/>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10"/>
+    <row r="10" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45708</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11"/>
+    <row r="11" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45831</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12"/>
